--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F64806-D6C9-4135-99B4-6320252CC202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13931" windowHeight="11004"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>叶泠泠，六岁，天生感官敏锐，精神力强，从小药浴，炼体，吃了鲸胶，观想九芯海棠，在识海中与自身武魂建立了联系，从此能够与植物交流。</t>
   </si>
@@ -47,59 +41,59 @@
 独孤博走后，叶泠泠发现独孤博送了星罗灵珠，告诉母亲这株仙草对独孤博用户很大。</t>
   </si>
   <si>
+    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
+  </si>
+  <si>
+    <t>随后独孤雁继续服用鸡冠凤凰葵，进化毒素，只保留冰火属性，在冰火两仪泉眼中获得了五倍修炼速度，并且随着潜入深度增加，修炼速度还会继续增加，照这个速度下去，要不了几年就能成为封号斗罗，而且在泉水中修炼还能继续增强武魂属性。</t>
+  </si>
+  <si>
+    <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的领悟（进化方向）。
+独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
+  </si>
+  <si>
+    <t>一年后，叶泠泠（7岁）随着身体素质提高，负重不够用，前往天斗城锻造区，在逛街途中发现生灵之金，买下。
+叶泠泠在精神力大增之后，每年都会尝试在天斗中北部寻找万载玄冰窟。</t>
+  </si>
+  <si>
     <t>叶泠泠从生灵之金磨下粉末吸收（防止被生灵之金反向吸收），大量的生命力让叶泠泠身体数值迅速增强，不过生命能量还是有些消散浪费了，并且无需治疗魂技就能快速修复自身，叶泠泠开始自残式修炼，并开始尝试在体内重新通过凝聚魂骨的方式凝聚生灵之金。</t>
-  </si>
-  <si>
-    <t>叶泠泠（9岁）成功凝聚生灵之金躯干骨之后，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。</t>
-  </si>
-  <si>
-    <t>独孤雁在十三岁时达到九十级，成功在识海与自身武魂建立了联系，开始自己凝聚第九魂环。</t>
-  </si>
-  <si>
-    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随后独孤雁继续服用鸡冠凤凰葵，进化毒素，只保留冰火属性，在冰火两仪泉眼中获得了五倍修炼速度，并且随着潜入深度增加，修炼速度还会继续增加，照这个速度下去，要不了几年就能成为封号斗罗，而且在泉水中修炼还能继续增强武魂属性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，少量用以提升修为，修炼速度爆增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，再帮独孤雁凝聚魂环时获得了部分龙族传承。
 独孤雁（10岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠（9岁）成功凝聚生灵之金躯干骨之后，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。</t>
   </si>
   <si>
     <t>叶泠泠找到万载玄冰窟，将极冰神晶全部吸收。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的领悟（进化方向）。
-独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年后，叶泠泠（7岁）随着身体素质提高，负重不够用，前往天斗城锻造区，在逛街途中发现生灵之金，买下。
-叶泠泠在精神力大增之后，每年都会尝试在天斗中北部寻找万载玄冰窟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域。</t>
+  </si>
+  <si>
+    <t>独孤雁在十三岁时达到九十级，成功在识海与自身武魂建立了联系，开始自己凝聚第九魂环。</t>
   </si>
   <si>
     <t>一年后，叶泠泠十一岁也达到90级，两人开始累积魂骨和魂环年限。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四年后，叶泠泠和独孤雁两人都是一身一万年魂环，叶泠泠四个十万年魂骨和五个万年魂骨，独孤雁第九魂环四十万年，独孤雁领悟冰火领域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠和独孤雁前往星斗大森林挑战魂兽。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,30 +102,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,9 +455,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -152,21 +710,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -416,129 +1018,140 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="2" ht="43.2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
+    <row r="3" ht="72" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
+    <row r="4" ht="72" spans="1:1">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="8" ht="57.6" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" ht="100.8" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="10" ht="28.8" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BEE0F9-3350-494E-BD4D-A1D037579C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE8822-7E28-4028-AC89-F5D8EEB2BAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10286" yWindow="609" windowWidth="15771" windowHeight="12257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8743" yWindow="2031" windowWidth="15771" windowHeight="12258" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，少量用以提升修为，修炼速度爆增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，再帮独孤雁凝聚魂环时获得了部分龙族传承，凝聚了精神魂核，自创魂技增幅，解毒。
-独孤雁（10岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>观看全大陆魂师斗魂大赛，发现缺乏观法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,6 +122,11 @@
   <si>
     <t>独孤雁在十三岁时达到九十级，成功在识海与自身武魂建立了联系，凝聚极冰魂核，开始自己凝聚第九魂环。
 独孤博服用幽香绮罗和雪色天鹅吻，武魂进化万毒碧蛟，魂力从92级提升到93级。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，修炼速度爆增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，再帮独孤雁凝聚魂环时获得了部分龙族传承，凝聚了精神魂核，自创魂技增幅，解毒。
+独孤雁（10岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -494,12 +494,12 @@
     </row>
     <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
     </row>
     <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
@@ -519,7 +519,7 @@
     </row>
     <row r="9" spans="1:1" ht="113.15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
@@ -539,12 +539,12 @@
     </row>
     <row r="13" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
@@ -559,42 +559,42 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE8822-7E28-4028-AC89-F5D8EEB2BAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227026E-88F0-473B-B955-1E0FAC113C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8743" yWindow="2031" windowWidth="15771" windowHeight="12258" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,63 +47,17 @@
 独孤博走后，叶泠泠发现独孤博送了星罗灵珠，告诉母亲这株仙草对独孤博用户很大。</t>
   </si>
   <si>
-    <t>叶泠泠（9岁）成功凝聚生灵之金躯干骨之后，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。</t>
-  </si>
-  <si>
-    <t>叶泠泠找到万载玄冰窟，将极冰神晶全部吸收。</t>
-  </si>
-  <si>
     <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域。</t>
   </si>
   <si>
-    <t>四年后，叶泠泠和独孤雁两人都是一身一万年魂环，叶泠泠四个十万年魂骨和五个万年魂骨，独孤雁第九魂环四十万年，独孤雁领悟冰火领域。</t>
-  </si>
-  <si>
     <t>叶泠泠和独孤雁前往星斗大森林挑战魂兽。</t>
   </si>
   <si>
-    <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的感悟（解毒，进化）。
-独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠从生灵之金磨下粉末吸收（防止被生灵之金反向吸收），大量的生命力让叶泠泠身体数值迅速增强，不过生命能量还是有些消散浪费了，并且无需治疗魂技就能快速修复自身，叶泠泠开始自残式修炼，并开始尝试在体内重新通过凝聚魂骨的方式凝聚生灵之金。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看全大陆魂师斗魂大赛，发现缺乏观法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>赛后叶泠泠和独孤雁前往日月大陆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一年后，叶泠泠十一岁也达到90级，凝聚生灵魂核，两人开始累积魂骨和魂环年限。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邪魔森林杀了邪帝，得到眼睛外附魂骨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠和独孤雁修炼到九十九级，独孤雁获取冰火龙爪两块外附魂骨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索另外两块大陆，找到龙谷入口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫来独孤博开启入口，两人压制魂力到50级，进入龙谷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两人找到龙墓后，疯狂收集魂骨，随后龙谷愤怒，两人被排斥了出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两人吸收完魂骨之后，达到了一百级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,8 +79,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，修炼速度爆增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，再帮独孤雁凝聚魂环时获得了部分龙族传承，凝聚了精神魂核，自创魂技增幅，解毒。
-独孤雁（10岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
+    <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的感悟（解毒）。
+独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠从生灵之金磨下粉末吸收（防止被生灵之金反向吸收），大量的生命力让叶泠泠身体数值迅速增强，不过生命能量还是有些消散浪费了，并且无需治疗魂技就能快速修复自身，叶泠泠开始自残式修炼，并开始尝试在体内重新通过凝聚魂骨的方式凝聚生灵之金，修炼速度变为两倍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年后，叶泠泠15岁和独孤雁18岁两人都是一身一万年魂环，叶泠泠四个十万年魂骨和五个万年魂骨，独孤雁第九魂环四十万年，独孤雁领悟冰火领域。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠（9岁）找到万载玄冰窟，将极冰神晶全部吸收。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，身体自适应速度暴增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，再帮独孤雁凝聚魂环时获得了部分龙族传承，凝聚了精神魂核，自创魂技增幅，解毒，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。
+独孤雁（11岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看全大陆魂师斗魂大赛，发现缺乏观法，决定以后去邪魔森林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两年后，叶泠泠17岁96级，独孤雁20岁96级，两人一身魂骨和高年限魂环，加上强大的肉身，实力已经接近了99级。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠和独孤雁深入冰火两仪眼底部，发现冰火龙王尸骨以及大量极冰神晶和极火神晶，两人去魂骨时遭遇冰火龙魂，一翻战斗之后，冰火龙魂融入独孤雁，提纯独孤雁龙族血脉，独孤雁等级升到99级，全身魂环等级提升为50万年，第一魂环被替换为适合自身的魂环，获得冰火龙王龙爪魂骨。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邪魔森林叶泠泠用自身分离出的一粒生灵之金与邪帝交换获得眼睛魂骨。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索另外两块大陆，找到龙谷入口。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫来独孤博开启入口，两人压制魂力到50级，进入龙谷。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两人找到龙墓后，独孤雁凭借冰火龙王继承人的身份收集了出龙神和其它神王的所有的魂骨。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两人回到冰火两仪眼后，由叶泠泠吸收魂骨平分能量，两人花了一年时间将所有魂环提升到100级，以后又花了4年时间将等级提升到139级，达到准神王境界。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -494,107 +497,107 @@
     </row>
     <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="113.15" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227026E-88F0-473B-B955-1E0FAC113C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A093248D-AFA9-43C0-AFF8-6F1A1CF8F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>叶泠泠，六岁，天生感官敏锐，精神力强，从小药浴，炼体，吃了鲸胶，观想九芯海棠，在识海中与自身武魂建立了联系，从此能够与植物交流。</t>
   </si>
@@ -47,108 +47,148 @@
 独孤博走后，叶泠泠发现独孤博送了星罗灵珠，告诉母亲这株仙草对独孤博用户很大。</t>
   </si>
   <si>
-    <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域。</t>
-  </si>
-  <si>
     <t>叶泠泠和独孤雁前往星斗大森林挑战魂兽。</t>
   </si>
   <si>
-    <t>赛后叶泠泠和独孤雁前往日月大陆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一年后，叶泠泠十一岁也达到90级，凝聚生灵魂核，两人开始累积魂骨和魂环年限。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一年后，叶泠泠（7岁）随着身体素质提高，负重不够用，前往天斗城锻造区，在逛街途中发现生灵之金，买下。
 叶泠泠在精神力大增之后，每年都会尝试在天斗中北部寻找万载玄冰窟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随后独孤雁继续服用青龙月见，进化毒素，只保留冰火属性，在冰火两仪泉眼中获得了五倍修炼速度，并且随着潜入深度增加，修炼速度还会继续增加，照这个速度下去，要不了几年就能成为封号斗罗，而且在泉水中修炼还能继续增强武魂属性。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>独孤雁在十三岁时达到九十级，成功在识海与自身武魂建立了联系，凝聚极冰魂核，开始自己凝聚第九魂环。
 独孤博服用幽香绮罗和雪色天鹅吻，武魂进化万毒碧蛟，魂力从92级提升到93级。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的感悟（解毒）。
 独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>叶泠泠从生灵之金磨下粉末吸收（防止被生灵之金反向吸收），大量的生命力让叶泠泠身体数值迅速增强，不过生命能量还是有些消散浪费了，并且无需治疗魂技就能快速修复自身，叶泠泠开始自残式修炼，并开始尝试在体内重新通过凝聚魂骨的方式凝聚生灵之金，修炼速度变为两倍。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四年后，叶泠泠15岁和独孤雁18岁两人都是一身一万年魂环，叶泠泠四个十万年魂骨和五个万年魂骨，独孤雁第九魂环四十万年，独孤雁领悟冰火领域。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>叶泠泠（9岁）找到万载玄冰窟，将极冰神晶全部吸收。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，身体自适应速度暴增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，再帮独孤雁凝聚魂环时获得了部分龙族传承，凝聚了精神魂核，自创魂技增幅，解毒，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两年后，叶泠泠17岁96级，独孤雁20岁96级，两人一身魂骨和高年限魂环，加上强大的肉身，实力已经接近了99级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索另外两块大陆，找到龙谷入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫来独孤博开启入口，两人压制魂力到50级，进入龙谷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两人找到龙墓后，独孤雁凭借冰火龙王继承人的身份收集了出龙神和其它神王的所有的魂骨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，身体自适应速度暴增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，凝聚了精神魂核，自创魂技增幅，解毒，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。
 独孤雁（11岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看全大陆魂师斗魂大赛，发现缺乏观法，决定以后去邪魔森林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两年后，叶泠泠17岁96级，独孤雁20岁96级，两人一身魂骨和高年限魂环，加上强大的肉身，实力已经接近了99级。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠和独孤雁深入冰火两仪眼底部，发现冰火龙王尸骨以及大量极冰神晶和极火神晶，两人去魂骨时遭遇冰火龙魂，一翻战斗之后，冰火龙魂融入独孤雁，提纯独孤雁龙族血脉，独孤雁等级升到99级，全身魂环等级提升为50万年，第一魂环被替换为适合自身的魂环，获得冰火龙王龙爪魂骨。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邪魔森林叶泠泠用自身分离出的一粒生灵之金与邪帝交换获得眼睛魂骨。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索另外两块大陆，找到龙谷入口。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫来独孤博开启入口，两人压制魂力到50级，进入龙谷。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两人找到龙墓后，独孤雁凭借冰火龙王继承人的身份收集了出龙神和其它神王的所有的魂骨。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两人回到冰火两仪眼后，由叶泠泠吸收魂骨平分能量，两人花了一年时间将所有魂环提升到100级，以后又花了4年时间将等级提升到139级，达到准神王境界。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邪魔森林叶泠泠用自身分离出的一粒生灵之金与邪帝交换二十万年本源，邪帝认为有诈，开打，叶泠泠击败邪帝，要走了邪帝四十万年本源凝聚的眼睛魂骨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠和独孤雁深入冰火两仪眼底部，发现冰火龙王尸骨以及大量极冰神晶和极火神晶，两人去魂骨时遭遇冰火龙魂，一翻战斗之后，冰火龙魂融入独孤雁，提纯独孤雁龙族血脉，独孤雁等级升到99级，全身魂环等级提升为50万年，第一魂环被替换为适合自身的魂环，获得冰火龙王龙爪魂骨，冰火龙王分出了一点本源给叶泠泠凝聚了翅膀外附魂骨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看全大陆魂师斗魂大赛，发现缺乏观法，决定以后去邪魔森林。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛后叶泠泠和独孤雁前往日月大陆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域，生可赋予物体生命力，让金属进化，让自身进化，死可剥夺物体和生物生命力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又过四年，唐三在吸收大明和二明之后来到落日森林，寻找魂环，找到冰火两仪眼，想用暗器换仙草，独孤博不换，唐三晚上来偷，被叶泠泠发现，独孤雁暴打唐三，叶泠泠夺取唐三的海神三叉戟，然后让唐三滚蛋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠吸收海神三叉戟后进阶神王境界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏在唐三修罗领域中的修罗神暗中联系神界，修罗神控制唐晨前来夺回海神三叉戟，结果被独孤雁和叶泠泠击杀，然后叶泠泠吸收修罗剑本源注入独孤雁，独孤雁也成为神王。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海神和修罗神下界来查看情况，与叶泠泠和独孤雁战斗，双方平手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年之后，两人回到冰火两仪眼后，由叶泠泠吸收魂骨平分能量，两人花了一年时间将所有魂环提升到100级，以后又花了4年时间将等级提升到139级，达到半步神王境界，叶泠泠也掌握了空间之力，叶泠泠告诉独孤雁成为神王之前不要暴露神级实力。
+之后两人利用叶泠泠的空间们去其它行星，甚至恒星修炼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐三从杀戮之都回来，前往海神岛修炼。
+天斗皇帝被千仞雪毒死，千仞雪成为天斗皇帝。
+千仞雪稳固地位之后，将天斗与武魂殿合并，武魂殿成为国教。
+蓝点霸王宗被灭，七宝琉璃宗损失惨重。
+七宝琉璃宗逃往星罗。
+千仞雪开始神考。
+天斗向星罗发动攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱克从海神岛回来，马红俊的武魂缺陷被海神之光修复，宁荣荣潜力突破八十级。
+唐三在星斗大森林打败比比东，吸收大明和二明。
+史莱克加入星罗军队，昊天宗加入星罗。
+唐三前往天斗皇宫要瀚海乾坤罩（海神之心），与千仞雪战斗，成功抢夺海神之心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四神大战让比比东和千仞雪大惊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比比东和千仞雪，唐三纷纷成神。
+比比东和千仞雪邀请叶泠泠和独孤雁加入天斗。
+比比东和千仞雪对战双神位唐三，叶泠泠和独孤雁与修罗神和海神对峙，双方平手。
+最后停战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,11 +236,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,15 +509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
@@ -496,112 +537,146 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="127.3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="13" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="127.3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="70.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="84.9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="70.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -615,7 +690,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -629,7 +704,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A093248D-AFA9-43C0-AFF8-6F1A1CF8F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE249D4-FC99-446E-9F01-AE5FF8AEAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1654" yWindow="1809" windowWidth="15772" windowHeight="12257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>叶泠泠，六岁，天生感官敏锐，精神力强，从小药浴，炼体，吃了鲸胶，观想九芯海棠，在识海中与自身武魂建立了联系，从此能够与植物交流。</t>
-  </si>
-  <si>
     <t>觉醒武魂，先天魂力十级，当晚梦中获得九芯海棠血脉传承，可自己凝聚魂环和魂骨，叶泠泠询问母亲治疗魂技的魂力运行路线，母亲说没有这种东西。</t>
   </si>
   <si>
@@ -176,6 +173,10 @@
 比比东和千仞雪邀请叶泠泠和独孤雁加入天斗。
 比比东和千仞雪对战双神位唐三，叶泠泠和独孤雁与修罗神和海神对峙，双方平手。
 最后停战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠，六岁，天生感官敏锐，精神力强，从小药浴，炼体，吃了鲸胶，观想九芯海棠，在识海中与自身武魂建立了联系，从此能够与植物交流。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,9 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -522,157 +521,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="84.9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoNovel\叶泠泠\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE249D4-FC99-446E-9F01-AE5FF8AEAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1654" yWindow="1809" windowWidth="15772" windowHeight="12257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15360" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +31,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
+    <t>叶泠泠，六岁，天生感官敏锐，精神力强，从小药浴，炼体，吃了鲸胶，观想九芯海棠，在识海中与自身武魂建立了联系，从此能够与植物交流。</t>
+  </si>
+  <si>
     <t>觉醒武魂，先天魂力十级，当晚梦中获得九芯海棠血脉传承，可自己凝聚魂环和魂骨，叶泠泠询问母亲治疗魂技的魂力运行路线，母亲说没有这种东西。</t>
   </si>
   <si>
@@ -44,108 +41,72 @@
 独孤博走后，叶泠泠发现独孤博送了星罗灵珠，告诉母亲这株仙草对独孤博用户很大。</t>
   </si>
   <si>
-    <t>叶泠泠和独孤雁前往星斗大森林挑战魂兽。</t>
-  </si>
-  <si>
-    <t>一年后，叶泠泠十一岁也达到90级，凝聚生灵魂核，两人开始累积魂骨和魂环年限。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
+  </si>
+  <si>
+    <t>随后独孤雁继续服用青龙月见，进化毒素，只保留冰火属性，在冰火两仪泉眼中获得了五倍修炼速度，并且随着潜入深度增加，修炼速度还会继续增加，照这个速度下去，要不了几年就能成为封号斗罗，而且在泉水中修炼还能继续增强武魂属性。</t>
+  </si>
+  <si>
+    <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的感悟（解毒）。
+独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
   </si>
   <si>
     <t>一年后，叶泠泠（7岁）随着身体素质提高，负重不够用，前往天斗城锻造区，在逛街途中发现生灵之金，买下。
 叶泠泠在精神力大增之后，每年都会尝试在天斗中北部寻找万载玄冰窟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随后独孤雁继续服用青龙月见，进化毒素，只保留冰火属性，在冰火两仪泉眼中获得了五倍修炼速度，并且随着潜入深度增加，修炼速度还会继续增加，照这个速度下去，要不了几年就能成为封号斗罗，而且在泉水中修炼还能继续增强武魂属性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母女前往独孤家，独孤博得知叶泠泠能够与植物交流，于是一同前往冰火两仪眼，认识了所有仙草，随后独孤雁服用了冰火双草，独孤崖服用地龙金瓜，独孤博则计划服用幽香绮罗和雪色天鹅吻，叶泠泠服用了望穿秋水露和星罗灵珠，并趁机给自己凝聚了第一魂环（两千年），魂技是治疗，叶泠泠精神力能够外放。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠从生灵之金磨下粉末吸收（防止被生灵之金反向吸收），大量的生命力让叶泠泠身体数值迅速增强，不过生命能量还是有些消散浪费了，并且无需治疗魂技就能快速修复自身，叶泠泠开始自残式修炼，并开始尝试在体内重新通过凝聚魂骨的方式凝聚生灵之金，修炼速度变为两倍。</t>
+  </si>
+  <si>
+    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，身体自适应速度暴增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，凝聚了精神魂核，自创魂技增幅，解毒，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。
+独孤雁（11岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
+  </si>
+  <si>
+    <t>叶泠泠（9岁）找到万载玄冰窟，将极冰神晶全部吸收。</t>
+  </si>
+  <si>
+    <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域，生可赋予物体生命力，让金属进化，让自身进化，死可剥夺物体和生物生命力。</t>
   </si>
   <si>
     <t>独孤雁在十三岁时达到九十级，成功在识海与自身武魂建立了联系，凝聚极冰魂核，开始自己凝聚第九魂环。
 独孤博服用幽香绮罗和雪色天鹅吻，武魂进化万毒碧蛟，魂力从92级提升到93级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠之后留在冰火两仪眼修炼，利用冰火两仪眼的环境锻体，通过不断治疗自身，身体逐渐适应冰火两仪眼的环境，并对自身的生命属性有了更深的感悟（解毒）。
-独孤雁开始修炼叶泠泠传授的武魂观想法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠从生灵之金磨下粉末吸收（防止被生灵之金反向吸收），大量的生命力让叶泠泠身体数值迅速增强，不过生命能量还是有些消散浪费了，并且无需治疗魂技就能快速修复自身，叶泠泠开始自残式修炼，并开始尝试在体内重新通过凝聚魂骨的方式凝聚生灵之金，修炼速度变为两倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年后，叶泠泠十一岁也达到90级，凝聚生灵魂核，两人开始累积魂骨和魂环年限。</t>
   </si>
   <si>
     <t>四年后，叶泠泠15岁和独孤雁18岁两人都是一身一万年魂环，叶泠泠四个十万年魂骨和五个万年魂骨，独孤雁第九魂环四十万年，独孤雁领悟冰火领域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠（9岁）找到万载玄冰窟，将极冰神晶全部吸收。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠和独孤雁前往星斗大森林挑战魂兽。</t>
   </si>
   <si>
     <t>两年后，叶泠泠17岁96级，独孤雁20岁96级，两人一身魂骨和高年限魂环，加上强大的肉身，实力已经接近了99级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠和独孤雁深入冰火两仪眼底部，发现冰火龙王尸骨以及大量极冰神晶和极火神晶，两人去魂骨时遭遇冰火龙魂，一翻战斗之后，冰火龙魂融入独孤雁，提纯独孤雁龙族血脉，独孤雁等级升到99级，全身魂环等级提升为50万年，第一魂环被替换为适合自身的魂环，获得冰火龙王龙爪魂骨，冰火龙王分出了一点本源给叶泠泠凝聚了翅膀外附魂骨。</t>
+  </si>
+  <si>
+    <t>观看全大陆魂师斗魂大赛，发现缺乏观法，决定以后去邪魔森林。</t>
+  </si>
+  <si>
+    <t>赛后叶泠泠和独孤雁前往日月大陆。</t>
+  </si>
+  <si>
+    <t>在邪魔森林叶泠泠用自身分离出的一粒生灵之金与邪帝交换二十万年本源，邪帝认为有诈，开打，叶泠泠击败邪帝，要走了邪帝四十万年本源凝聚的眼睛魂骨。</t>
   </si>
   <si>
     <t>探索另外两块大陆，找到龙谷入口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>叫来独孤博开启入口，两人压制魂力到50级，进入龙谷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>两人找到龙墓后，独孤雁凭借冰火龙王继承人的身份收集了出龙神和其它神王的所有的魂骨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠（8岁）经过尝试，成功将大部分能量被叶泠泠用来凝聚躯干魂骨，由于生灵之金有限，只将肩胛骨下方的两节脊椎化作了魂骨，少量用以提升修为，身体自适应速度暴增，并且在生灵之金强大的修复力的辅助下，成功适应了冰火两仪眼的泉水，开始泉水锻体，自创魂技拟生灵之金，凝聚了精神魂核，自创魂技增幅，解毒，获得了吸收非生命体生命力的能力，叶泠泠利用这种能力飞快升级。
-独孤雁（11岁）达到70级，获得了武魂真身，进化极致冰火属性，精神力也获得了突破，能够外放，叶泠泠帮助其凝聚了一枚十万年魂环，开始利用武魂真身修炼武魂观想法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邪魔森林叶泠泠用自身分离出的一粒生灵之金与邪帝交换二十万年本源，邪帝认为有诈，开打，叶泠泠击败邪帝，要走了邪帝四十万年本源凝聚的眼睛魂骨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠和独孤雁深入冰火两仪眼底部，发现冰火龙王尸骨以及大量极冰神晶和极火神晶，两人去魂骨时遭遇冰火龙魂，一翻战斗之后，冰火龙魂融入独孤雁，提纯独孤雁龙族血脉，独孤雁等级升到99级，全身魂环等级提升为50万年，第一魂环被替换为适合自身的魂环，获得冰火龙王龙爪魂骨，冰火龙王分出了一点本源给叶泠泠凝聚了翅膀外附魂骨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看全大陆魂师斗魂大赛，发现缺乏观法，决定以后去邪魔森林。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛后叶泠泠和独孤雁前往日月大陆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠快速达到70级，武魂进化为灵金海棠，领悟生死领域，生可赋予物体生命力，让金属进化，让自身进化，死可剥夺物体和生物生命力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又过四年，唐三在吸收大明和二明之后来到落日森林，寻找魂环，找到冰火两仪眼，想用暗器换仙草，独孤博不换，唐三晚上来偷，被叶泠泠发现，独孤雁暴打唐三，叶泠泠夺取唐三的海神三叉戟，然后让唐三滚蛋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠吸收海神三叉戟后进阶神王境界。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏在唐三修罗领域中的修罗神暗中联系神界，修罗神控制唐晨前来夺回海神三叉戟，结果被独孤雁和叶泠泠击杀，然后叶泠泠吸收修罗剑本源注入独孤雁，独孤雁也成为神王。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海神和修罗神下界来查看情况，与叶泠泠和独孤雁战斗，双方平手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五年之后，两人回到冰火两仪眼后，由叶泠泠吸收魂骨平分能量，两人花了一年时间将所有魂环提升到100级，以后又花了4年时间将等级提升到139级，达到半步神王境界，叶泠泠也掌握了空间之力，叶泠泠告诉独孤雁成为神王之前不要暴露神级实力。
 之后两人利用叶泠泠的空间们去其它行星，甚至恒星修炼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唐三从杀戮之都回来，前往海神岛修炼。
@@ -155,36 +116,46 @@
 七宝琉璃宗逃往星罗。
 千仞雪开始神考。
 天斗向星罗发动攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又过四年，唐三在吸收大明和二明之后来到落日森林，寻找魂环，找到冰火两仪眼，想用暗器换仙草，独孤博不换，唐三晚上来偷，被叶泠泠发现，独孤雁暴打唐三，叶泠泠夺取唐三的海神三叉戟，然后让唐三滚蛋。</t>
   </si>
   <si>
     <t>史莱克从海神岛回来，马红俊的武魂缺陷被海神之光修复，宁荣荣潜力突破八十级。
 唐三在星斗大森林打败比比东，吸收大明和二明。
 史莱克加入星罗军队，昊天宗加入星罗。
 唐三前往天斗皇宫要瀚海乾坤罩（海神之心），与千仞雪战斗，成功抢夺海神之心。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泠泠吸收海神三叉戟后进阶神王境界。</t>
+  </si>
+  <si>
+    <t>隐藏在唐三修罗领域中的修罗神暗中联系神界，修罗神控制唐晨前来夺回海神三叉戟，结果被独孤雁和叶泠泠击杀，然后叶泠泠吸收修罗剑本源注入独孤雁，独孤雁也成为神王。</t>
+  </si>
+  <si>
+    <t>海神和修罗神下界来查看情况，与叶泠泠和独孤雁战斗，双方平手。</t>
   </si>
   <si>
     <t>四神大战让比比东和千仞雪大惊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比比东和千仞雪，唐三纷纷成神。
 比比东和千仞雪邀请叶泠泠和独孤雁加入天斗。
 比比东和千仞雪对战双神位唐三，叶泠泠和独孤雁与修罗神和海神对峙，双方平手。
 最后停战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泠泠，六岁，天生感官敏锐，精神力强，从小药浴，炼体，吃了鲸胶，观想九芯海棠，在识海中与自身武魂建立了联系，从此能够与植物交流。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,30 +164,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,9 +517,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -237,24 +772,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,207 +1083,215 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="67" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.53515625" customWidth="1"/>
+    <col min="2" max="2" width="63.537037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="1" ht="28.8" spans="1:1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="129.6" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="57.6" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="72" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="100.8" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="86.4" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="43.2" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="72" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="70.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="127.3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="56.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="70.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="84.9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="70.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/叶泠泠/大纲.xlsx
+++ b/叶泠泠/大纲.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="13380"/>
+    <workbookView windowWidth="15528" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,14 +155,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,133 +628,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,10 +765,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
